--- a/ofc/estimates/sattidandand bhawan/V.xlsx
+++ b/ofc/estimates/sattidandand bhawan/V.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\sattidandand bhawan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\sattidandand bhawan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="17" state="hidden" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="62">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -255,14 +255,20 @@
   <si>
     <t>Detail Quantity Measurement Sheet</t>
   </si>
+  <si>
+    <t>Date: 2081/08/10</t>
+  </si>
+  <si>
+    <t>Date:2081/08/10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -432,7 +438,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -442,7 +448,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,14 +468,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,7 +484,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,7 +509,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,7 +536,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +545,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -554,7 +560,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,7 +576,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -580,7 +586,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -597,6 +603,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -615,31 +631,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,6 +647,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1221,130 +1227,130 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -1406,7 +1412,7 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="36" t="s">
         <v>46</v>
@@ -1446,7 +1452,7 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="36" t="s">
         <v>47</v>
@@ -1486,7 +1492,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="36"/>
       <c r="C12" s="35">
@@ -1518,7 +1524,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="36" t="s">
         <v>48</v>
@@ -1558,7 +1564,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="36" t="s">
         <v>43</v>
@@ -1593,7 +1599,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="36" t="s">
         <v>44</v>
@@ -1628,7 +1634,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="36"/>
       <c r="C16" s="35">
@@ -1661,7 +1667,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35">
@@ -1694,7 +1700,7 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="36"/>
       <c r="C18" s="35">
@@ -1727,7 +1733,7 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35">
@@ -1760,7 +1766,7 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="36" t="s">
         <v>39</v>
@@ -1785,7 +1791,7 @@
       </c>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="36" t="s">
         <v>38</v>
@@ -1803,7 +1809,7 @@
       </c>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="36"/>
       <c r="C22" s="41"/>
@@ -1816,7 +1822,7 @@
       <c r="J22" s="44"/>
       <c r="K22" s="35"/>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="63">
         <v>2</v>
       </c>
@@ -1833,7 +1839,7 @@
       <c r="J23" s="44"/>
       <c r="K23" s="29"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="36" t="s">
         <v>46</v>
@@ -1870,7 +1876,7 @@
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="36" t="s">
         <v>47</v>
@@ -1907,7 +1913,7 @@
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="36"/>
       <c r="C26" s="35">
@@ -1936,7 +1942,7 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="36" t="s">
         <v>48</v>
@@ -1973,7 +1979,7 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="36" t="s">
         <v>43</v>
@@ -2007,7 +2013,7 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="36" t="s">
         <v>44</v>
@@ -2040,7 +2046,7 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="36"/>
       <c r="C30" s="35">
@@ -2071,7 +2077,7 @@
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="36"/>
       <c r="C31" s="35">
@@ -2102,7 +2108,7 @@
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="36"/>
       <c r="C32" s="35">
@@ -2133,7 +2139,7 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35">
@@ -2164,7 +2170,7 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="36" t="s">
         <v>39</v>
@@ -2196,7 +2202,7 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="36" t="s">
         <v>38</v>
@@ -2221,7 +2227,7 @@
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="36"/>
       <c r="C36" s="41"/>
@@ -2234,7 +2240,7 @@
       <c r="J36" s="44"/>
       <c r="K36" s="35"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>3</v>
       </c>
@@ -2270,7 +2276,7 @@
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="24"/>
       <c r="C38" s="19"/>
@@ -2290,7 +2296,7 @@
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="45" t="s">
         <v>17</v>
@@ -2308,7 +2314,7 @@
       </c>
       <c r="K39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="57"/>
       <c r="B40" s="60"/>
       <c r="C40" s="61"/>
@@ -2321,16 +2327,16 @@
       <c r="J40" s="59"/>
       <c r="K40" s="56"/>
     </row>
-    <row r="41" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49"/>
       <c r="B41" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="78">
+      <c r="C41" s="72">
         <f>J39</f>
         <v>704002.17546479416</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="38">
         <v>100</v>
       </c>
@@ -2341,15 +2347,15 @@
       <c r="J41" s="53"/>
       <c r="K41" s="54"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="55"/>
       <c r="B42" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="81">
+      <c r="C42" s="75">
         <v>500000</v>
       </c>
-      <c r="D42" s="81"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="38"/>
       <c r="F42" s="48"/>
       <c r="G42" s="47"/>
@@ -2358,16 +2364,16 @@
       <c r="J42" s="47"/>
       <c r="K42" s="48"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="55"/>
       <c r="B43" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="81">
+      <c r="C43" s="75">
         <f>C42-C45-C46</f>
         <v>475000</v>
       </c>
-      <c r="D43" s="81"/>
+      <c r="D43" s="75"/>
       <c r="E43" s="38">
         <f>C43/C41*100</f>
         <v>67.471382412475776</v>
@@ -2379,16 +2385,16 @@
       <c r="J43" s="47"/>
       <c r="K43" s="48"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="78">
+      <c r="C44" s="72">
         <f>C41-C43</f>
         <v>229002.17546479416</v>
       </c>
-      <c r="D44" s="78"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="38">
         <f>100-E43</f>
         <v>32.528617587524224</v>
@@ -2400,16 +2406,16 @@
       <c r="J44" s="47"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="55"/>
       <c r="B45" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="78">
+      <c r="C45" s="72">
         <f>C42*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D45" s="78"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="38">
         <v>3</v>
       </c>
@@ -2420,16 +2426,16 @@
       <c r="J45" s="47"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="55"/>
       <c r="B46" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="78">
+      <c r="C46" s="72">
         <f>C42*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D46" s="78"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="38">
         <v>2</v>
       </c>
@@ -2440,7 +2446,7 @@
       <c r="J46" s="47"/>
       <c r="K46" s="48"/>
     </row>
-    <row r="47" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
       <c r="C47" s="56"/>
@@ -2453,62 +2459,1382 @@
       <c r="J47" s="56"/>
       <c r="K47" s="56"/>
     </row>
-    <row r="48" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S103"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1">
+        <f>0.524-0.127</f>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37">
+        <v>18.2</v>
+      </c>
+      <c r="E10" s="37">
+        <v>9.1</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="38">
+        <f>PRODUCT(C10:F10)</f>
+        <v>20.702499999999997</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="1">
+        <f>60/3.281</f>
+        <v>18.287107589149649</v>
+      </c>
+      <c r="O10" s="1">
+        <f>30/3.281</f>
+        <v>9.1435537945748244</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="35">
+        <f>0*1</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="37">
+        <v>5.49</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" ref="G11:G19" si="0">PRODUCT(C11:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="1">
+        <f>18.025/3.281</f>
+        <v>5.4937519049070396</v>
+      </c>
+      <c r="O11" s="1">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35">
+        <f>0*1</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="37">
+        <v>5.44</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1.05</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="G12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="35">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="37">
+        <v>3.4</v>
+      </c>
+      <c r="E13" s="37">
+        <v>3.18</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="0"/>
+        <v>-1.3514999999999999</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <f>16/12/3.281</f>
+        <v>0.40638016864776993</v>
+      </c>
+      <c r="P13" s="1">
+        <f>0.524*3.281</f>
+        <v>1.7192440000000002</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="35">
+        <f>0*3*5</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="37">
+        <f>0.524-0.127</f>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="21"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="35">
+        <v>6</v>
+      </c>
+      <c r="D15" s="37">
+        <f>15.42/3.281</f>
+        <v>4.6997866504114594</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>2.5378847912221878</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35">
+        <v>3</v>
+      </c>
+      <c r="D16" s="37">
+        <f>12.17/3.281</f>
+        <v>3.7092349893325203</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="0"/>
+        <v>1.0014934471197805</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35">
+        <v>2</v>
+      </c>
+      <c r="D17" s="37">
+        <f>10.33/3.281</f>
+        <v>3.148430356598598</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="0"/>
+        <v>0.5667174641877476</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35">
+        <v>4</v>
+      </c>
+      <c r="D18" s="37">
+        <f>13.833/3.281</f>
+        <v>4.2160926546784516</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="0"/>
+        <v>1.5177933556842425</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35">
+        <v>5</v>
+      </c>
+      <c r="D19" s="37">
+        <f>12.17/3.281</f>
+        <v>3.7092349893325203</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="0"/>
+        <v>1.6691557451996342</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="32">
+        <f>SUM(G10:G19)</f>
+        <v>26.644044803413589</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="32">
+        <v>13568.9</v>
+      </c>
+      <c r="J20" s="43">
+        <f>G20*I20</f>
+        <v>361530.37953303865</v>
+      </c>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="44">
+        <f>0.13*G20*9524.2</f>
+        <v>32989.217497167323</v>
+      </c>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="63">
+        <v>2</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="35">
+        <v>1</v>
+      </c>
+      <c r="D24" s="37">
+        <v>18.2</v>
+      </c>
+      <c r="E24" s="37">
+        <v>9.1</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38">
+        <f>PRODUCT(C24:F24)</f>
+        <v>165.61999999999998</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="1">
+        <f>60/3.281</f>
+        <v>18.287107589149649</v>
+      </c>
+      <c r="O24" s="1">
+        <f>30/3.281</f>
+        <v>9.1435537945748244</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="35">
+        <f>0*1</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="37">
+        <v>5.49</v>
+      </c>
+      <c r="E25" s="37">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38">
+        <f t="shared" ref="G25:G33" si="1">PRODUCT(C25:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="1">
+        <f>18.025/3.281</f>
+        <v>5.4937519049070396</v>
+      </c>
+      <c r="O25" s="1">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35">
+        <f>0*1</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="37">
+        <v>5.44</v>
+      </c>
+      <c r="E26" s="37">
+        <v>1.05</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="35">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="37">
+        <v>3.4</v>
+      </c>
+      <c r="E27" s="37">
+        <v>3.18</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38">
+        <f t="shared" si="1"/>
+        <v>-10.811999999999999</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1">
+        <f>16/12/3.281</f>
+        <v>0.40638016864776993</v>
+      </c>
+      <c r="P27" s="1">
+        <f>0.524*3.281</f>
+        <v>1.7192440000000002</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="35">
+        <f>0*3*5</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="37">
+        <f>0.4*4</f>
+        <v>1.6</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="G28" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="35">
+        <v>6</v>
+      </c>
+      <c r="D29" s="37">
+        <f>15.42/3.281</f>
+        <v>4.6997866504114594</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37">
+        <f>0.3*2</f>
+        <v>0.6</v>
+      </c>
+      <c r="G29" s="38">
+        <f t="shared" si="1"/>
+        <v>16.919231941481254</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35">
+        <v>3</v>
+      </c>
+      <c r="D30" s="37">
+        <f>12.17/3.281</f>
+        <v>3.7092349893325203</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37">
+        <f t="shared" ref="F30:F33" si="2">0.3*2</f>
+        <v>0.6</v>
+      </c>
+      <c r="G30" s="38">
+        <f t="shared" si="1"/>
+        <v>6.6766229807985367</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="35">
+        <v>2</v>
+      </c>
+      <c r="D31" s="37">
+        <f>10.33/3.281</f>
+        <v>3.148430356598598</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="G31" s="38">
+        <f t="shared" si="1"/>
+        <v>3.7781164279183175</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="35">
+        <v>4</v>
+      </c>
+      <c r="D32" s="37">
+        <f>13.833/3.281</f>
+        <v>4.2160926546784516</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="G32" s="38">
+        <f t="shared" si="1"/>
+        <v>10.118622371228284</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="35">
+        <v>5</v>
+      </c>
+      <c r="D33" s="37">
+        <f>12.17/3.281</f>
+        <v>3.7092349893325203</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="G33" s="38">
+        <f t="shared" si="1"/>
+        <v>11.127704967997561</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="33">
+        <f>SUM(G24:G33)</f>
+        <v>203.42829868942394</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="39">
+        <v>915.42</v>
+      </c>
+      <c r="J34" s="44">
+        <f>G34*I34</f>
+        <v>186222.33318627244</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="44">
+        <f>0.13*G34*(46827.87/100)</f>
+        <v>12383.948102954369</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>3</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="19">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="33">
+        <f t="shared" ref="G37" si="3">PRODUCT(C37:F37)</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="23">
+        <v>500</v>
+      </c>
+      <c r="J37" s="33">
+        <f>G37*I37</f>
+        <v>500</v>
+      </c>
+      <c r="K37" s="21"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40">
+        <f>SUM(J9:J37)</f>
+        <v>593625.87831943284</v>
+      </c>
+      <c r="K39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="56"/>
+    </row>
+    <row r="41" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="72">
+        <f>J39</f>
+        <v>593625.87831943284</v>
+      </c>
+      <c r="D41" s="72"/>
+      <c r="E41" s="38">
+        <v>100</v>
+      </c>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="55"/>
+      <c r="B42" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="75">
+        <v>500000</v>
+      </c>
+      <c r="D42" s="75"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
+      <c r="B43" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="75">
+        <f>C42-C45-C46</f>
+        <v>475000</v>
+      </c>
+      <c r="D43" s="75"/>
+      <c r="E43" s="38">
+        <f>C43/C41*100</f>
+        <v>80.016727260060634</v>
+      </c>
+      <c r="F43" s="48"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="48"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
+      <c r="B44" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="72">
+        <f>C41-C43</f>
+        <v>118625.87831943284</v>
+      </c>
+      <c r="D44" s="72"/>
+      <c r="E44" s="38">
+        <f>100-E43</f>
+        <v>19.983272739939366</v>
+      </c>
+      <c r="F44" s="48"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="48"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
+      <c r="B45" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="72">
+        <f>C42*0.03</f>
+        <v>15000</v>
+      </c>
+      <c r="D45" s="72"/>
+      <c r="E45" s="38">
+        <v>3</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="48"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="55"/>
+      <c r="B46" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="72">
+        <f>C42*0.02</f>
+        <v>10000</v>
+      </c>
+      <c r="D46" s="72"/>
+      <c r="E46" s="38">
+        <v>2</v>
+      </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="48"/>
+    </row>
+    <row r="47" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+    </row>
+    <row r="48" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="C45:D45"/>
@@ -2538,138 +3864,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S103"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2704,7 +4030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -2731,7 +4057,7 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="36" t="s">
         <v>46</v>
@@ -2740,17 +4066,17 @@
         <v>1</v>
       </c>
       <c r="D10" s="37">
-        <v>18.2</v>
+        <v>18.28</v>
       </c>
       <c r="E10" s="37">
-        <v>9.1</v>
+        <v>9.14</v>
       </c>
       <c r="F10" s="37">
         <v>0.125</v>
       </c>
       <c r="G10" s="38">
         <f>PRODUCT(C10:F10)</f>
-        <v>20.702499999999997</v>
+        <v>20.884900000000002</v>
       </c>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
@@ -2770,13 +4096,12 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="35">
-        <f>0*1</f>
         <v>0</v>
       </c>
       <c r="D11" s="37">
@@ -2810,11 +4135,10 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="36"/>
       <c r="C12" s="35">
-        <f>0*1</f>
         <v>0</v>
       </c>
       <c r="D12" s="37">
@@ -2842,7 +4166,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="36" t="s">
         <v>48</v>
@@ -2881,14 +4205,14 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="36" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="35">
-        <f>0*3*5</f>
-        <v>0</v>
+        <f>3*5</f>
+        <v>15</v>
       </c>
       <c r="D14" s="37">
         <v>0.4</v>
@@ -2902,7 +4226,7 @@
       </c>
       <c r="G14" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9528000000000002</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
@@ -2916,7 +4240,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="36" t="s">
         <v>44</v>
@@ -2932,11 +4256,12 @@
         <v>0.3</v>
       </c>
       <c r="F15" s="37">
-        <v>0.3</v>
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
       </c>
       <c r="G15" s="38">
         <f t="shared" si="0"/>
-        <v>2.5378847912221878</v>
+        <v>3.0166871946865386</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
@@ -2950,7 +4275,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="36"/>
       <c r="C16" s="35">
@@ -2964,11 +4289,12 @@
         <v>0.3</v>
       </c>
       <c r="F16" s="37">
-        <v>0.3</v>
+        <f t="shared" ref="F16:F19" si="1">1.17/3.281</f>
+        <v>0.35659859798841814</v>
       </c>
       <c r="G16" s="38">
         <f t="shared" si="0"/>
-        <v>1.0014934471197805</v>
+        <v>1.1904371971250056</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
@@ -2982,11 +4308,11 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="37">
         <f>10.33/3.281</f>
@@ -2996,11 +4322,12 @@
         <v>0.3</v>
       </c>
       <c r="F17" s="37">
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>0.35659859798841814</v>
       </c>
       <c r="G17" s="38">
         <f t="shared" si="0"/>
-        <v>0.5667174641877476</v>
+        <v>1.0104532659245118</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
@@ -3014,11 +4341,11 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="36"/>
       <c r="C18" s="35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="37">
         <f>13.833/3.281</f>
@@ -3028,11 +4355,12 @@
         <v>0.3</v>
       </c>
       <c r="F18" s="37">
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>0.35659859798841814</v>
       </c>
       <c r="G18" s="38">
         <f t="shared" si="0"/>
-        <v>1.5177933556842425</v>
+        <v>2.2551790944714059</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
@@ -3046,7 +4374,7 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35">
@@ -3060,11 +4388,12 @@
         <v>0.3</v>
       </c>
       <c r="F19" s="37">
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>0.35659859798841814</v>
       </c>
       <c r="G19" s="38">
         <f t="shared" si="0"/>
-        <v>1.6691557451996342</v>
+        <v>1.9840619952083427</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
@@ -3078,7 +4407,7 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="36" t="s">
         <v>39</v>
@@ -3089,21 +4418,21 @@
       <c r="F20" s="42"/>
       <c r="G20" s="32">
         <f>SUM(G10:G19)</f>
-        <v>26.644044803413589</v>
+        <v>29.943018747415806</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I20" s="32">
         <v>13568.9</v>
       </c>
       <c r="J20" s="43">
         <f>G20*I20</f>
-        <v>361530.37953303865</v>
+        <v>406293.82708181033</v>
       </c>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="36" t="s">
         <v>38</v>
@@ -3117,11 +4446,11 @@
       <c r="I21" s="42"/>
       <c r="J21" s="44">
         <f>0.13*G20*9524.2</f>
-        <v>32989.217497167323</v>
+        <v>37073.82889003789</v>
       </c>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="36"/>
       <c r="C22" s="41"/>
@@ -3134,7 +4463,7 @@
       <c r="J22" s="44"/>
       <c r="K22" s="35"/>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="63">
         <v>2</v>
       </c>
@@ -3151,7 +4480,7 @@
       <c r="J23" s="44"/>
       <c r="K23" s="29"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="36" t="s">
         <v>46</v>
@@ -3160,15 +4489,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="37">
-        <v>18.2</v>
+        <v>18.28</v>
       </c>
       <c r="E24" s="37">
-        <v>9.1</v>
+        <v>9.14</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="38">
         <f>PRODUCT(C24:F24)</f>
-        <v>165.61999999999998</v>
+        <v>167.07920000000001</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
@@ -3188,13 +4517,12 @@
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="35">
-        <f>0*1</f>
         <v>0</v>
       </c>
       <c r="D25" s="37">
@@ -3205,7 +4533,7 @@
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="38">
-        <f t="shared" ref="G25:G33" si="1">PRODUCT(C25:F25)</f>
+        <f t="shared" ref="G25:G33" si="2">PRODUCT(C25:F25)</f>
         <v>0</v>
       </c>
       <c r="H25" s="39"/>
@@ -3226,11 +4554,10 @@
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="36"/>
       <c r="C26" s="35">
-        <f>0*1</f>
         <v>0</v>
       </c>
       <c r="D26" s="37">
@@ -3241,7 +4568,7 @@
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="39"/>
@@ -3256,7 +4583,7 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="36" t="s">
         <v>48</v>
@@ -3272,7 +4599,7 @@
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10.811999999999999</v>
       </c>
       <c r="H27" s="39"/>
@@ -3293,14 +4620,14 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="36" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="35">
-        <f>0*3*5</f>
-        <v>0</v>
+        <f>3*5</f>
+        <v>15</v>
       </c>
       <c r="D28" s="37">
         <f>0.4*4</f>
@@ -3312,8 +4639,8 @@
         <v>0.35659859798841814</v>
       </c>
       <c r="G28" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8.5583663517220359</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -3327,7 +4654,7 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="36" t="s">
         <v>44</v>
@@ -3341,12 +4668,12 @@
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="37">
-        <f>0.3*2</f>
-        <v>0.6</v>
+        <f>2*(1.17/3.281)</f>
+        <v>0.71319719597683628</v>
       </c>
       <c r="G29" s="38">
-        <f t="shared" si="1"/>
-        <v>16.919231941481254</v>
+        <f t="shared" si="2"/>
+        <v>20.111247964576922</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
@@ -3360,7 +4687,7 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="36"/>
       <c r="C30" s="35">
@@ -3372,12 +4699,12 @@
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="37">
-        <f t="shared" ref="F30:F33" si="2">0.3*2</f>
-        <v>0.6</v>
+        <f t="shared" ref="F30:F33" si="3">2*(1.17/3.281)</f>
+        <v>0.71319719597683628</v>
       </c>
       <c r="G30" s="38">
-        <f t="shared" si="1"/>
-        <v>6.6766229807985367</v>
+        <f t="shared" si="2"/>
+        <v>7.9362479808333708</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="39"/>
@@ -3391,11 +4718,11 @@
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="36"/>
       <c r="C31" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="37">
         <f>10.33/3.281</f>
@@ -3403,12 +4730,12 @@
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="37">
+        <f t="shared" si="3"/>
+        <v>0.71319719597683628</v>
+      </c>
+      <c r="G31" s="38">
         <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="G31" s="38">
-        <f t="shared" si="1"/>
-        <v>3.7781164279183175</v>
+        <v>6.7363551061634119</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
@@ -3422,11 +4749,11 @@
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="36"/>
       <c r="C32" s="35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="37">
         <f>13.833/3.281</f>
@@ -3434,12 +4761,12 @@
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="37">
+        <f t="shared" si="3"/>
+        <v>0.71319719597683628</v>
+      </c>
+      <c r="G32" s="38">
         <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="G32" s="38">
-        <f t="shared" si="1"/>
-        <v>10.118622371228284</v>
+        <v>15.034527296476037</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
@@ -3453,7 +4780,7 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35">
@@ -3465,12 +4792,12 @@
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="37">
+        <f t="shared" si="3"/>
+        <v>0.71319719597683628</v>
+      </c>
+      <c r="G33" s="38">
         <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="G33" s="38">
-        <f t="shared" si="1"/>
-        <v>11.127704967997561</v>
+        <v>13.227079968055619</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
@@ -3484,7 +4811,7 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="36" t="s">
         <v>39</v>
@@ -3495,7 +4822,7 @@
       <c r="F34" s="37"/>
       <c r="G34" s="33">
         <f>SUM(G24:G33)</f>
-        <v>203.42829868942394</v>
+        <v>227.87102466782741</v>
       </c>
       <c r="H34" s="39" t="s">
         <v>42</v>
@@ -3505,7 +4832,7 @@
       </c>
       <c r="J34" s="44">
         <f>G34*I34</f>
-        <v>186222.33318627244</v>
+        <v>208597.69340142256</v>
       </c>
       <c r="K34" s="21"/>
       <c r="M34" s="25"/>
@@ -3516,7 +4843,7 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="36" t="s">
         <v>38</v>
@@ -3530,7 +4857,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="44">
         <f>0.13*G34*(46827.87/100)</f>
-        <v>12383.948102954369</v>
+        <v>13871.929135885361</v>
       </c>
       <c r="K35" s="21"/>
       <c r="M35" s="25"/>
@@ -3541,7 +4868,7 @@
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="36"/>
       <c r="C36" s="41"/>
@@ -3554,1328 +4881,7 @@
       <c r="J36" s="44"/>
       <c r="K36" s="35"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
-        <v>3</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="19">
-        <v>1</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="33">
-        <f t="shared" ref="G37" si="3">PRODUCT(C37:F37)</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="23">
-        <v>500</v>
-      </c>
-      <c r="J37" s="33">
-        <f>G37*I37</f>
-        <v>500</v>
-      </c>
-      <c r="K37" s="21"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="21"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
-      <c r="B39" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40">
-        <f>SUM(J9:J37)</f>
-        <v>593625.87831943284</v>
-      </c>
-      <c r="K39" s="35"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="57"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="56"/>
-    </row>
-    <row r="41" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="78">
-        <f>J39</f>
-        <v>593625.87831943284</v>
-      </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="38">
-        <v>100</v>
-      </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="54"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="55"/>
-      <c r="B42" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="81">
-        <v>500000</v>
-      </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="48"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
-      <c r="B43" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="81">
-        <f>C42-C45-C46</f>
-        <v>475000</v>
-      </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="38">
-        <f>C43/C41*100</f>
-        <v>80.016727260060634</v>
-      </c>
-      <c r="F43" s="48"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="48"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
-      <c r="B44" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="78">
-        <f>C41-C43</f>
-        <v>118625.87831943284</v>
-      </c>
-      <c r="D44" s="78"/>
-      <c r="E44" s="38">
-        <f>100-E43</f>
-        <v>19.983272739939366</v>
-      </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="48"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
-      <c r="B45" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="78">
-        <f>C42*0.03</f>
-        <v>15000</v>
-      </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="38">
-        <v>3</v>
-      </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="48"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="78">
-        <f>C42*0.02</f>
-        <v>10000</v>
-      </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="38">
-        <v>2</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="48"/>
-    </row>
-    <row r="47" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-    </row>
-    <row r="48" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S105"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1">
-        <f>0.524-0.127</f>
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="35">
-        <v>1</v>
-      </c>
-      <c r="D10" s="37">
-        <v>18.28</v>
-      </c>
-      <c r="E10" s="37">
-        <v>9.14</v>
-      </c>
-      <c r="F10" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="G10" s="38">
-        <f>PRODUCT(C10:F10)</f>
-        <v>20.884900000000002</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="1">
-        <f>60/3.281</f>
-        <v>18.287107589149649</v>
-      </c>
-      <c r="O10" s="1">
-        <f>30/3.281</f>
-        <v>9.1435537945748244</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="35">
-        <v>0</v>
-      </c>
-      <c r="D11" s="37">
-        <v>5.49</v>
-      </c>
-      <c r="E11" s="37">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="F11" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="G11" s="38">
-        <f t="shared" ref="G11:G19" si="0">PRODUCT(C11:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="1">
-        <f>18.025/3.281</f>
-        <v>5.4937519049070396</v>
-      </c>
-      <c r="O11" s="1">
-        <f>3.5/3.281</f>
-        <v>1.0667479427003961</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="35">
-        <v>0</v>
-      </c>
-      <c r="D12" s="37">
-        <v>5.44</v>
-      </c>
-      <c r="E12" s="37">
-        <v>1.05</v>
-      </c>
-      <c r="F12" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="G12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="35">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="37">
-        <v>3.4</v>
-      </c>
-      <c r="E13" s="37">
-        <v>3.18</v>
-      </c>
-      <c r="F13" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="G13" s="38">
-        <f t="shared" si="0"/>
-        <v>-1.3514999999999999</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1">
-        <f>16/12/3.281</f>
-        <v>0.40638016864776993</v>
-      </c>
-      <c r="P13" s="1">
-        <f>0.524*3.281</f>
-        <v>1.7192440000000002</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="35">
-        <f>3*5</f>
-        <v>15</v>
-      </c>
-      <c r="D14" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="37">
-        <f>0.524-0.127</f>
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="G14" s="38">
-        <f t="shared" si="0"/>
-        <v>0.9528000000000002</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="35">
-        <v>6</v>
-      </c>
-      <c r="D15" s="37">
-        <f>15.42/3.281</f>
-        <v>4.6997866504114594</v>
-      </c>
-      <c r="E15" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="37">
-        <f>1.17/3.281</f>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G15" s="38">
-        <f t="shared" si="0"/>
-        <v>3.0166871946865386</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="21"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="35">
-        <v>3</v>
-      </c>
-      <c r="D16" s="37">
-        <f>12.17/3.281</f>
-        <v>3.7092349893325203</v>
-      </c>
-      <c r="E16" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="F16" s="37">
-        <f t="shared" ref="F16:F19" si="1">1.17/3.281</f>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G16" s="38">
-        <f t="shared" si="0"/>
-        <v>1.1904371971250056</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="35">
-        <v>3</v>
-      </c>
-      <c r="D17" s="37">
-        <f>10.33/3.281</f>
-        <v>3.148430356598598</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="F17" s="37">
-        <f t="shared" si="1"/>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G17" s="38">
-        <f t="shared" si="0"/>
-        <v>1.0104532659245118</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="35">
-        <v>5</v>
-      </c>
-      <c r="D18" s="37">
-        <f>13.833/3.281</f>
-        <v>4.2160926546784516</v>
-      </c>
-      <c r="E18" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="37">
-        <f t="shared" si="1"/>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G18" s="38">
-        <f t="shared" si="0"/>
-        <v>2.2551790944714059</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="35">
-        <v>5</v>
-      </c>
-      <c r="D19" s="37">
-        <f>12.17/3.281</f>
-        <v>3.7092349893325203</v>
-      </c>
-      <c r="E19" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="F19" s="37">
-        <f t="shared" si="1"/>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G19" s="38">
-        <f t="shared" si="0"/>
-        <v>1.9840619952083427</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="32">
-        <f>SUM(G10:G19)</f>
-        <v>29.943018747415806</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="32">
-        <v>13568.9</v>
-      </c>
-      <c r="J20" s="43">
-        <f>G20*I20</f>
-        <v>406293.82708181033</v>
-      </c>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="44">
-        <f>0.13*G20*9524.2</f>
-        <v>37073.82889003789</v>
-      </c>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="63">
-        <v>2</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="29"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="35">
-        <v>1</v>
-      </c>
-      <c r="D24" s="37">
-        <v>18.28</v>
-      </c>
-      <c r="E24" s="37">
-        <v>9.14</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38">
-        <f>PRODUCT(C24:F24)</f>
-        <v>167.07920000000001</v>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="1">
-        <f>60/3.281</f>
-        <v>18.287107589149649</v>
-      </c>
-      <c r="O24" s="1">
-        <f>30/3.281</f>
-        <v>9.1435537945748244</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="35">
-        <v>0</v>
-      </c>
-      <c r="D25" s="37">
-        <v>5.49</v>
-      </c>
-      <c r="E25" s="37">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38">
-        <f t="shared" ref="G25:G33" si="2">PRODUCT(C25:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="21"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="1">
-        <f>18.025/3.281</f>
-        <v>5.4937519049070396</v>
-      </c>
-      <c r="O25" s="1">
-        <f>3.5/3.281</f>
-        <v>1.0667479427003961</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="35">
-        <v>0</v>
-      </c>
-      <c r="D26" s="37">
-        <v>5.44</v>
-      </c>
-      <c r="E26" s="37">
-        <v>1.05</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="35">
-        <v>-1</v>
-      </c>
-      <c r="D27" s="37">
-        <v>3.4</v>
-      </c>
-      <c r="E27" s="37">
-        <v>3.18</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38">
-        <f t="shared" si="2"/>
-        <v>-10.811999999999999</v>
-      </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1">
-        <f>16/12/3.281</f>
-        <v>0.40638016864776993</v>
-      </c>
-      <c r="P27" s="1">
-        <f>0.524*3.281</f>
-        <v>1.7192440000000002</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="35">
-        <f>3*5</f>
-        <v>15</v>
-      </c>
-      <c r="D28" s="37">
-        <f>0.4*4</f>
-        <v>1.6</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37">
-        <f>1.17/3.281</f>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G28" s="38">
-        <f t="shared" si="2"/>
-        <v>8.5583663517220359</v>
-      </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="35">
-        <v>6</v>
-      </c>
-      <c r="D29" s="37">
-        <f>15.42/3.281</f>
-        <v>4.6997866504114594</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37">
-        <f>2*(1.17/3.281)</f>
-        <v>0.71319719597683628</v>
-      </c>
-      <c r="G29" s="38">
-        <f t="shared" si="2"/>
-        <v>20.111247964576922</v>
-      </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="21"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="35">
-        <v>3</v>
-      </c>
-      <c r="D30" s="37">
-        <f>12.17/3.281</f>
-        <v>3.7092349893325203</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37">
-        <f t="shared" ref="F30:F33" si="3">2*(1.17/3.281)</f>
-        <v>0.71319719597683628</v>
-      </c>
-      <c r="G30" s="38">
-        <f t="shared" si="2"/>
-        <v>7.9362479808333708</v>
-      </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="35">
-        <v>3</v>
-      </c>
-      <c r="D31" s="37">
-        <f>10.33/3.281</f>
-        <v>3.148430356598598</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37">
-        <f t="shared" si="3"/>
-        <v>0.71319719597683628</v>
-      </c>
-      <c r="G31" s="38">
-        <f t="shared" si="2"/>
-        <v>6.7363551061634119</v>
-      </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="35">
-        <v>5</v>
-      </c>
-      <c r="D32" s="37">
-        <f>13.833/3.281</f>
-        <v>4.2160926546784516</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37">
-        <f t="shared" si="3"/>
-        <v>0.71319719597683628</v>
-      </c>
-      <c r="G32" s="38">
-        <f t="shared" si="2"/>
-        <v>15.034527296476037</v>
-      </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="21"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="35">
-        <v>5</v>
-      </c>
-      <c r="D33" s="37">
-        <f>12.17/3.281</f>
-        <v>3.7092349893325203</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37">
-        <f t="shared" si="3"/>
-        <v>0.71319719597683628</v>
-      </c>
-      <c r="G33" s="38">
-        <f t="shared" si="2"/>
-        <v>13.227079968055619</v>
-      </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="21"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="33">
-        <f>SUM(G24:G33)</f>
-        <v>227.87102466782741</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="39">
-        <v>915.42</v>
-      </c>
-      <c r="J34" s="44">
-        <f>G34*I34</f>
-        <v>208597.69340142256</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="44">
-        <f>0.13*G34*(46827.87/100)</f>
-        <v>13871.929135885361</v>
-      </c>
-      <c r="K35" s="21"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="35"/>
-    </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A37" s="63">
         <v>3</v>
       </c>
@@ -4904,7 +4910,7 @@
       </c>
       <c r="K37" s="29"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="36"/>
       <c r="C38" s="41"/>
@@ -4917,7 +4923,7 @@
       <c r="J38" s="44"/>
       <c r="K38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>4</v>
       </c>
@@ -4953,7 +4959,7 @@
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="24"/>
       <c r="C40" s="19"/>
@@ -4973,7 +4979,7 @@
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="45" t="s">
         <v>17</v>
@@ -4991,7 +4997,7 @@
       </c>
       <c r="K41" s="35"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="60"/>
       <c r="C42" s="61"/>
@@ -5004,16 +5010,16 @@
       <c r="J42" s="59"/>
       <c r="K42" s="56"/>
     </row>
-    <row r="43" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
       <c r="B43" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="78">
+      <c r="C43" s="72">
         <f>J41</f>
         <v>686337.27850915608</v>
       </c>
-      <c r="D43" s="78"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="38">
         <v>100</v>
       </c>
@@ -5024,15 +5030,15 @@
       <c r="J43" s="53"/>
       <c r="K43" s="54"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="81">
+      <c r="C44" s="75">
         <v>500000</v>
       </c>
-      <c r="D44" s="81"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="38"/>
       <c r="F44" s="48"/>
       <c r="G44" s="47"/>
@@ -5041,16 +5047,16 @@
       <c r="J44" s="47"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="55"/>
       <c r="B45" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="81">
+      <c r="C45" s="75">
         <f>C44-C47-C48</f>
         <v>475000</v>
       </c>
-      <c r="D45" s="81"/>
+      <c r="D45" s="75"/>
       <c r="E45" s="38">
         <f>C45/C43*100</f>
         <v>69.207955749071743</v>
@@ -5062,16 +5068,16 @@
       <c r="J45" s="47"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="55"/>
       <c r="B46" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="78">
+      <c r="C46" s="72">
         <f>C43-C45</f>
         <v>211337.27850915608</v>
       </c>
-      <c r="D46" s="78"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="38">
         <f>100-E45</f>
         <v>30.792044250928257</v>
@@ -5083,16 +5089,16 @@
       <c r="J46" s="47"/>
       <c r="K46" s="48"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="55"/>
       <c r="B47" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="78">
+      <c r="C47" s="72">
         <f>C44*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D47" s="78"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="38">
         <v>3</v>
       </c>
@@ -5103,16 +5109,16 @@
       <c r="J47" s="47"/>
       <c r="K47" s="48"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="55"/>
       <c r="B48" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="78">
+      <c r="C48" s="72">
         <f>C44*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D48" s="78"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="38">
         <v>2</v>
       </c>
@@ -5123,7 +5129,7 @@
       <c r="J48" s="47"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="56"/>
       <c r="C49" s="56"/>
@@ -5136,62 +5142,1972 @@
       <c r="J49" s="56"/>
       <c r="K49" s="56"/>
     </row>
-    <row r="50" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="88">
+        <f>F23</f>
+        <v>686337.27850915608</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="88">
+        <f>I23</f>
+        <v>686337.27850915608</v>
+      </c>
+      <c r="K6" s="89"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="I7" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="str">
+        <f>'Estimate (2)'!A6:F6</f>
+        <v xml:space="preserve">Project:- लाकिला भुमेथली सचितानन्द सन्त संघ मन्दिर निर्माण </v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="I8" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="str">
+        <f>'Estimate (2)'!A7:F7</f>
+        <v>Location:- Shankharapur Municipality 9</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="I9" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <f>'Estimate (2)'!A9</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="62" t="str">
+        <f>'Estimate (2)'!B9</f>
+        <v>d]lzgsf] k|of]u u/L ;'k/ :6«Sr/df l;d]G6 s+lqm6 ug]{ sfd -!M!=%M#_</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>'Estimate (2)'!H20</f>
+        <v>cum</v>
+      </c>
+      <c r="D13" s="12">
+        <f>'Estimate (2)'!G20</f>
+        <v>29.943018747415806</v>
+      </c>
+      <c r="E13" s="12">
+        <f>'Estimate (2)'!I20</f>
+        <v>13568.9</v>
+      </c>
+      <c r="F13" s="12">
+        <f>D13*E13</f>
+        <v>406293.82708181033</v>
+      </c>
+      <c r="G13" s="12">
+        <f>V!G20</f>
+        <v>29.943018747415806</v>
+      </c>
+      <c r="H13" s="12">
+        <f>V!I20</f>
+        <v>13568.9</v>
+      </c>
+      <c r="I13" s="12">
+        <f>G13*H13</f>
+        <v>406293.82708181033</v>
+      </c>
+      <c r="J13" s="28">
+        <f>I13-F13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="69" t="str">
+        <f>'Estimate (2)'!B21</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
+        <f>'Estimate (2)'!J21</f>
+        <v>37073.82889003789</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
+        <f>V!J21</f>
+        <v>37073.82889003789</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <f>'Estimate (2)'!A23</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="62" t="str">
+        <f>'Estimate (2)'!B23</f>
+        <v>kmnfd]sf] kfOk / KnfOaf]8{af6 kmdf{ agfpg] sfd</v>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f>'Estimate (2)'!H34</f>
+        <v>sqm</v>
+      </c>
+      <c r="D16" s="12">
+        <f>'Estimate (2)'!G34</f>
+        <v>227.87102466782741</v>
+      </c>
+      <c r="E16" s="12">
+        <f>'Estimate (2)'!I34</f>
+        <v>915.42</v>
+      </c>
+      <c r="F16" s="12">
+        <f>D16*E16</f>
+        <v>208597.69340142256</v>
+      </c>
+      <c r="G16" s="12">
+        <f>V!G34</f>
+        <v>227.87102466782741</v>
+      </c>
+      <c r="H16" s="12">
+        <f>V!I34</f>
+        <v>915.42</v>
+      </c>
+      <c r="I16" s="12">
+        <f>G16*H16</f>
+        <v>208597.69340142256</v>
+      </c>
+      <c r="J16" s="28">
+        <f>I16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="69" t="str">
+        <f>'Estimate (2)'!B35</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
+        <f>'Estimate (2)'!J35</f>
+        <v>13871.929135885361</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <f>V!J35</f>
+        <v>13871.929135885361</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <f>'Estimate (2)'!A37</f>
+        <v>3</v>
+      </c>
+      <c r="B19" s="68" t="str">
+        <f>'Estimate (2)'!B37</f>
+        <v>Lab test for cube test and reinforcement tensile strength check</v>
+      </c>
+      <c r="C19" s="12" t="str">
+        <f>'Estimate (2)'!H37</f>
+        <v>PS</v>
+      </c>
+      <c r="D19" s="12">
+        <f>'Estimate (2)'!G37</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
+        <f>'Estimate (2)'!I37</f>
+        <v>20000</v>
+      </c>
+      <c r="F19" s="12">
+        <f>D19*E19</f>
+        <v>20000</v>
+      </c>
+      <c r="G19" s="12">
+        <f>V!G37</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
+        <f>V!I37</f>
+        <v>20000</v>
+      </c>
+      <c r="I19" s="12">
+        <f>G19*H19</f>
+        <v>20000</v>
+      </c>
+      <c r="J19" s="28">
+        <f>I19-F19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <f>'Estimate (2)'!A39</f>
+        <v>4</v>
+      </c>
+      <c r="B21" s="31" t="str">
+        <f>'Estimate (2)'!B39</f>
+        <v>Information board (सुचना पाटि)</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f>'Estimate (2)'!H39</f>
+        <v>no.</v>
+      </c>
+      <c r="D21" s="12">
+        <f>'Estimate (2)'!G39</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="12">
+        <f>'Estimate (2)'!I39</f>
+        <v>500</v>
+      </c>
+      <c r="F21" s="12">
+        <f>D21*E21</f>
+        <v>500</v>
+      </c>
+      <c r="G21" s="12">
+        <f>V!G39</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <f>V!I39</f>
+        <v>500</v>
+      </c>
+      <c r="I21" s="12">
+        <f>G21*H21</f>
+        <v>500</v>
+      </c>
+      <c r="J21" s="28">
+        <f>I21-F21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
+        <f>SUM(F13:F21)</f>
+        <v>686337.27850915608</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <f>SUM(I13:I21)</f>
+        <v>686337.27850915608</v>
+      </c>
+      <c r="J23" s="13">
+        <f>I23-F23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Bal Krishna Manandhar&amp;RApproved By:
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S105"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1">
+        <f>0.524-0.127</f>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37">
+        <v>18.28</v>
+      </c>
+      <c r="E10" s="37">
+        <v>9.14</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="38">
+        <f>PRODUCT(C10:F10)</f>
+        <v>20.884900000000002</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="1">
+        <f>60/3.281</f>
+        <v>18.287107589149649</v>
+      </c>
+      <c r="O10" s="1">
+        <f>30/3.281</f>
+        <v>9.1435537945748244</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="35">
+        <v>0</v>
+      </c>
+      <c r="D11" s="37">
+        <v>5.49</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" ref="G11:G19" si="0">PRODUCT(C11:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="1">
+        <f>18.025/3.281</f>
+        <v>5.4937519049070396</v>
+      </c>
+      <c r="O11" s="1">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35">
+        <v>0</v>
+      </c>
+      <c r="D12" s="37">
+        <v>5.44</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1.05</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="G12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="35">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="37">
+        <v>3.4</v>
+      </c>
+      <c r="E13" s="37">
+        <v>3.18</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="0"/>
+        <v>-1.3514999999999999</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <f>16/12/3.281</f>
+        <v>0.40638016864776993</v>
+      </c>
+      <c r="P13" s="1">
+        <f>0.524*3.281</f>
+        <v>1.7192440000000002</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="35">
+        <f>3*5</f>
+        <v>15</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="37">
+        <f>0.524-0.127</f>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" si="0"/>
+        <v>0.9528000000000002</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="21"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="35">
+        <v>6</v>
+      </c>
+      <c r="D15" s="37">
+        <f>15.42/3.281</f>
+        <v>4.6997866504114594</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="37">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>3.0166871946865386</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35">
+        <v>3</v>
+      </c>
+      <c r="D16" s="37">
+        <f>12.17/3.281</f>
+        <v>3.7092349893325203</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="37">
+        <f t="shared" ref="F16:F19" si="1">1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="0"/>
+        <v>1.1904371971250056</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35">
+        <v>3</v>
+      </c>
+      <c r="D17" s="37">
+        <f>10.33/3.281</f>
+        <v>3.148430356598598</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="37">
+        <f t="shared" si="1"/>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="0"/>
+        <v>1.0104532659245118</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35">
+        <v>5</v>
+      </c>
+      <c r="D18" s="37">
+        <f>13.833/3.281</f>
+        <v>4.2160926546784516</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="37">
+        <f t="shared" si="1"/>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="0"/>
+        <v>2.2551790944714059</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35">
+        <v>5</v>
+      </c>
+      <c r="D19" s="37">
+        <f>12.17/3.281</f>
+        <v>3.7092349893325203</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="37">
+        <f t="shared" si="1"/>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="0"/>
+        <v>1.9840619952083427</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="32">
+        <f>SUM(G10:G19)</f>
+        <v>29.943018747415806</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="32">
+        <v>13568.9</v>
+      </c>
+      <c r="J20" s="43">
+        <f>G20*I20</f>
+        <v>406293.82708181033</v>
+      </c>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="44">
+        <f>0.13*G20*9524.2</f>
+        <v>37073.82889003789</v>
+      </c>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="63">
+        <v>2</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="35">
+        <v>1</v>
+      </c>
+      <c r="D24" s="37">
+        <v>18.28</v>
+      </c>
+      <c r="E24" s="37">
+        <v>9.14</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38">
+        <f>PRODUCT(C24:F24)</f>
+        <v>167.07920000000001</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="1">
+        <f>60/3.281</f>
+        <v>18.287107589149649</v>
+      </c>
+      <c r="O24" s="1">
+        <f>30/3.281</f>
+        <v>9.1435537945748244</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="35">
+        <v>0</v>
+      </c>
+      <c r="D25" s="37">
+        <v>5.49</v>
+      </c>
+      <c r="E25" s="37">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38">
+        <f t="shared" ref="G25:G33" si="2">PRODUCT(C25:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="1">
+        <f>18.025/3.281</f>
+        <v>5.4937519049070396</v>
+      </c>
+      <c r="O25" s="1">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35">
+        <v>0</v>
+      </c>
+      <c r="D26" s="37">
+        <v>5.44</v>
+      </c>
+      <c r="E26" s="37">
+        <v>1.05</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="35">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="37">
+        <v>3.4</v>
+      </c>
+      <c r="E27" s="37">
+        <v>3.18</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38">
+        <f t="shared" si="2"/>
+        <v>-10.811999999999999</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1">
+        <f>16/12/3.281</f>
+        <v>0.40638016864776993</v>
+      </c>
+      <c r="P27" s="1">
+        <f>0.524*3.281</f>
+        <v>1.7192440000000002</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="35">
+        <f>3*5</f>
+        <v>15</v>
+      </c>
+      <c r="D28" s="37">
+        <f>0.4*4</f>
+        <v>1.6</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="G28" s="38">
+        <f t="shared" si="2"/>
+        <v>8.5583663517220359</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="35">
+        <v>6</v>
+      </c>
+      <c r="D29" s="37">
+        <f>15.42/3.281</f>
+        <v>4.6997866504114594</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37">
+        <f>2*(1.17/3.281)</f>
+        <v>0.71319719597683628</v>
+      </c>
+      <c r="G29" s="38">
+        <f t="shared" si="2"/>
+        <v>20.111247964576922</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35">
+        <v>3</v>
+      </c>
+      <c r="D30" s="37">
+        <f>12.17/3.281</f>
+        <v>3.7092349893325203</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37">
+        <f t="shared" ref="F30:F33" si="3">2*(1.17/3.281)</f>
+        <v>0.71319719597683628</v>
+      </c>
+      <c r="G30" s="38">
+        <f t="shared" si="2"/>
+        <v>7.9362479808333708</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="35">
+        <v>3</v>
+      </c>
+      <c r="D31" s="37">
+        <f>10.33/3.281</f>
+        <v>3.148430356598598</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37">
+        <f t="shared" si="3"/>
+        <v>0.71319719597683628</v>
+      </c>
+      <c r="G31" s="38">
+        <f t="shared" si="2"/>
+        <v>6.7363551061634119</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="35">
+        <v>5</v>
+      </c>
+      <c r="D32" s="37">
+        <f>13.833/3.281</f>
+        <v>4.2160926546784516</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37">
+        <f t="shared" si="3"/>
+        <v>0.71319719597683628</v>
+      </c>
+      <c r="G32" s="38">
+        <f t="shared" si="2"/>
+        <v>15.034527296476037</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="35">
+        <v>5</v>
+      </c>
+      <c r="D33" s="37">
+        <f>12.17/3.281</f>
+        <v>3.7092349893325203</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37">
+        <f t="shared" si="3"/>
+        <v>0.71319719597683628</v>
+      </c>
+      <c r="G33" s="38">
+        <f t="shared" si="2"/>
+        <v>13.227079968055619</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="33">
+        <f>SUM(G24:G33)</f>
+        <v>227.87102466782741</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="39">
+        <v>915.42</v>
+      </c>
+      <c r="J34" s="44">
+        <f>G34*I34</f>
+        <v>208597.69340142256</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="44">
+        <f>0.13*G34*(46827.87/100)</f>
+        <v>13871.929135885361</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="63">
+        <v>3</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="65">
+        <v>1</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38">
+        <f t="shared" ref="G37" si="4">PRODUCT(C37:F37)</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="33">
+        <v>20000</v>
+      </c>
+      <c r="J37" s="44">
+        <f>G37*I37</f>
+        <v>20000</v>
+      </c>
+      <c r="K37" s="29"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>4</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="19">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="33">
+        <f t="shared" ref="G39" si="5">PRODUCT(C39:F39)</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="23">
+        <v>500</v>
+      </c>
+      <c r="J39" s="33">
+        <f>G39*I39</f>
+        <v>500</v>
+      </c>
+      <c r="K39" s="21"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40">
+        <f>SUM(J9:J39)</f>
+        <v>686337.27850915608</v>
+      </c>
+      <c r="K41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="56"/>
+    </row>
+    <row r="43" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="49"/>
+      <c r="B43" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="72">
+        <f>J41</f>
+        <v>686337.27850915608</v>
+      </c>
+      <c r="D43" s="72"/>
+      <c r="E43" s="38">
+        <v>100</v>
+      </c>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
+      <c r="B44" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="75">
+        <v>500000</v>
+      </c>
+      <c r="D44" s="75"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="48"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
+      <c r="B45" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="75">
+        <f>C44-C47-C48</f>
+        <v>475000</v>
+      </c>
+      <c r="D45" s="75"/>
+      <c r="E45" s="38">
+        <f>C45/C43*100</f>
+        <v>69.207955749071743</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="48"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="55"/>
+      <c r="B46" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="72">
+        <f>C43-C45</f>
+        <v>211337.27850915608</v>
+      </c>
+      <c r="D46" s="72"/>
+      <c r="E46" s="38">
+        <f>100-E45</f>
+        <v>30.792044250928257</v>
+      </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="48"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="55"/>
+      <c r="B47" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="72">
+        <f>C44*0.03</f>
+        <v>15000</v>
+      </c>
+      <c r="D47" s="72"/>
+      <c r="E47" s="38">
+        <v>3</v>
+      </c>
+      <c r="F47" s="48"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="48"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="55"/>
+      <c r="B48" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="72">
+        <f>C44*0.02</f>
+        <v>10000</v>
+      </c>
+      <c r="D48" s="72"/>
+      <c r="E48" s="38">
+        <v>2</v>
+      </c>
+      <c r="F48" s="48"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="48"/>
+    </row>
+    <row r="49" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+    </row>
+    <row r="50" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="C47:D47"/>
@@ -5210,696 +7126,147 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter xml:space="preserve">&amp;LPrepared By:
-&amp;CChecked By:
-&amp;RApproved By:
-</oddFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Bal Krishna Manandhar&amp;RApproved By:
+Er. Prakash Singh Saud</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="82">
-        <f>F23</f>
-        <v>686337.27850915608</v>
-      </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="82">
-        <f>I23</f>
-        <v>686337.27850915608</v>
-      </c>
-      <c r="K6" s="83"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="I7" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="str">
-        <f>'Estimate (2)'!A6:F6</f>
-        <v xml:space="preserve">Project:- लाकिला भुमेथली सचितानन्द सन्त संघ मन्दिर निर्माण </v>
-      </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="I8" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="str">
-        <f>'Estimate (2)'!A7:F7</f>
-        <v>Location:- Shankharapur Municipality 9</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="I9" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <f>'Estimate (2)'!A9</f>
-        <v>1</v>
-      </c>
-      <c r="B13" s="62" t="str">
-        <f>'Estimate (2)'!B9</f>
-        <v>d]lzgsf] k|of]u u/L ;'k/ :6«Sr/df l;d]G6 s+lqm6 ug]{ sfd -!M!=%M#_</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <f>'Estimate (2)'!H20</f>
-        <v>cum</v>
-      </c>
-      <c r="D13" s="12">
-        <f>'Estimate (2)'!G20</f>
-        <v>29.943018747415806</v>
-      </c>
-      <c r="E13" s="12">
-        <f>'Estimate (2)'!I20</f>
-        <v>13568.9</v>
-      </c>
-      <c r="F13" s="12">
-        <f>D13*E13</f>
-        <v>406293.82708181033</v>
-      </c>
-      <c r="G13" s="12">
-        <f>V!G20</f>
-        <v>29.943018747415806</v>
-      </c>
-      <c r="H13" s="12">
-        <f>V!I20</f>
-        <v>13568.9</v>
-      </c>
-      <c r="I13" s="12">
-        <f>G13*H13</f>
-        <v>406293.82708181033</v>
-      </c>
-      <c r="J13" s="28">
-        <f>I13-F13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="69" t="str">
-        <f>'Estimate (2)'!B21</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <f>'Estimate (2)'!J21</f>
-        <v>37073.82889003789</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12">
-        <f>V!J21</f>
-        <v>37073.82889003789</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <f>'Estimate (2)'!A23</f>
-        <v>2</v>
-      </c>
-      <c r="B16" s="62" t="str">
-        <f>'Estimate (2)'!B23</f>
-        <v>kmnfd]sf] kfOk / KnfOaf]8{af6 kmdf{ agfpg] sfd</v>
-      </c>
-      <c r="C16" s="12" t="str">
-        <f>'Estimate (2)'!H34</f>
-        <v>sqm</v>
-      </c>
-      <c r="D16" s="12">
-        <f>'Estimate (2)'!G34</f>
-        <v>227.87102466782741</v>
-      </c>
-      <c r="E16" s="12">
-        <f>'Estimate (2)'!I34</f>
-        <v>915.42</v>
-      </c>
-      <c r="F16" s="12">
-        <f>D16*E16</f>
-        <v>208597.69340142256</v>
-      </c>
-      <c r="G16" s="12">
-        <f>V!G34</f>
-        <v>227.87102466782741</v>
-      </c>
-      <c r="H16" s="12">
-        <f>V!I34</f>
-        <v>915.42</v>
-      </c>
-      <c r="I16" s="12">
-        <f>G16*H16</f>
-        <v>208597.69340142256</v>
-      </c>
-      <c r="J16" s="28">
-        <f>I16-F16</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="69" t="str">
-        <f>'Estimate (2)'!B35</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
-        <f>'Estimate (2)'!J35</f>
-        <v>13871.929135885361</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12">
-        <f>V!J35</f>
-        <v>13871.929135885361</v>
-      </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
-        <f>'Estimate (2)'!A37</f>
-        <v>3</v>
-      </c>
-      <c r="B19" s="68" t="str">
-        <f>'Estimate (2)'!B37</f>
-        <v>Lab test for cube test and reinforcement tensile strength check</v>
-      </c>
-      <c r="C19" s="12" t="str">
-        <f>'Estimate (2)'!H37</f>
-        <v>PS</v>
-      </c>
-      <c r="D19" s="12">
-        <f>'Estimate (2)'!G37</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="12">
-        <f>'Estimate (2)'!I37</f>
-        <v>20000</v>
-      </c>
-      <c r="F19" s="12">
-        <f>D19*E19</f>
-        <v>20000</v>
-      </c>
-      <c r="G19" s="12">
-        <f>V!G37</f>
-        <v>1</v>
-      </c>
-      <c r="H19" s="12">
-        <f>V!I37</f>
-        <v>20000</v>
-      </c>
-      <c r="I19" s="12">
-        <f>G19*H19</f>
-        <v>20000</v>
-      </c>
-      <c r="J19" s="28">
-        <f>I19-F19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
-        <f>'Estimate (2)'!A39</f>
-        <v>4</v>
-      </c>
-      <c r="B21" s="31" t="str">
-        <f>'Estimate (2)'!B39</f>
-        <v>Information board (सुचना पाटि)</v>
-      </c>
-      <c r="C21" s="12" t="str">
-        <f>'Estimate (2)'!H39</f>
-        <v>no.</v>
-      </c>
-      <c r="D21" s="12">
-        <f>'Estimate (2)'!G39</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="12">
-        <f>'Estimate (2)'!I39</f>
-        <v>500</v>
-      </c>
-      <c r="F21" s="12">
-        <f>D21*E21</f>
-        <v>500</v>
-      </c>
-      <c r="G21" s="12">
-        <f>V!G39</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="12">
-        <f>V!I39</f>
-        <v>500</v>
-      </c>
-      <c r="I21" s="12">
-        <f>G21*H21</f>
-        <v>500</v>
-      </c>
-      <c r="J21" s="28">
-        <f>I21-F21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7">
-        <f>SUM(F13:F21)</f>
-        <v>686337.27850915608</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7">
-        <f>SUM(I13:I21)</f>
-        <v>686337.27850915608</v>
-      </c>
-      <c r="J23" s="13">
-        <f>I23-F23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;LPrepared By:
-&amp;CChecked By:
-&amp;RApproved By:
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="73" t="s">
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -5934,7 +7301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -5961,7 +7328,7 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="36" t="s">
         <v>46</v>
@@ -6000,7 +7367,7 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
     </row>
-    <row r="11" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="36" t="s">
         <v>47</v>
@@ -6039,7 +7406,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="36"/>
       <c r="C12" s="35">
@@ -6070,7 +7437,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="36" t="s">
         <v>48</v>
@@ -6109,7 +7476,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="36" t="s">
         <v>43</v>
@@ -6144,7 +7511,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="36" t="s">
         <v>44</v>
@@ -6179,7 +7546,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="36"/>
       <c r="C16" s="35">
@@ -6212,7 +7579,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35">
@@ -6245,7 +7612,7 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="36"/>
       <c r="C18" s="35">
@@ -6278,7 +7645,7 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35">
@@ -6311,7 +7678,7 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="36" t="s">
         <v>39</v>
@@ -6336,7 +7703,7 @@
       </c>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="36" t="s">
         <v>38</v>
@@ -6354,7 +7721,7 @@
       </c>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="36"/>
       <c r="C22" s="41"/>
@@ -6367,7 +7734,7 @@
       <c r="J22" s="44"/>
       <c r="K22" s="35"/>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="63">
         <v>2</v>
       </c>
@@ -6384,7 +7751,7 @@
       <c r="J23" s="44"/>
       <c r="K23" s="29"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="36" t="s">
         <v>46</v>
@@ -6421,7 +7788,7 @@
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
     </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="36" t="s">
         <v>47</v>
@@ -6458,7 +7825,7 @@
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
     </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="36"/>
       <c r="C26" s="35">
@@ -6487,7 +7854,7 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="36" t="s">
         <v>48</v>
@@ -6524,7 +7891,7 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="36" t="s">
         <v>43</v>
@@ -6558,7 +7925,7 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="36" t="s">
         <v>44</v>
@@ -6591,7 +7958,7 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="36"/>
       <c r="C30" s="35">
@@ -6622,7 +7989,7 @@
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="36"/>
       <c r="C31" s="35">
@@ -6653,7 +8020,7 @@
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="36"/>
       <c r="C32" s="35">
@@ -6684,7 +8051,7 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35">
@@ -6715,7 +8082,7 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="36" t="s">
         <v>39</v>
@@ -6747,7 +8114,7 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="36" t="s">
         <v>38</v>
@@ -6772,7 +8139,7 @@
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="36"/>
       <c r="C36" s="41"/>
@@ -6785,7 +8152,7 @@
       <c r="J36" s="44"/>
       <c r="K36" s="35"/>
     </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A37" s="63">
         <v>3</v>
       </c>
@@ -6814,7 +8181,7 @@
       </c>
       <c r="K37" s="29"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="36"/>
       <c r="C38" s="41"/>
@@ -6827,7 +8194,7 @@
       <c r="J38" s="44"/>
       <c r="K38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>4</v>
       </c>
@@ -6863,7 +8230,7 @@
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="24"/>
       <c r="C40" s="19"/>
@@ -6883,7 +8250,7 @@
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="45" t="s">
         <v>17</v>
@@ -6901,7 +8268,7 @@
       </c>
       <c r="K41" s="35"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="60"/>
       <c r="C42" s="61"/>
@@ -6914,16 +8281,16 @@
       <c r="J42" s="59"/>
       <c r="K42" s="56"/>
     </row>
-    <row r="43" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
       <c r="B43" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="78">
+      <c r="C43" s="72">
         <f>J41</f>
         <v>686337.27850915608</v>
       </c>
-      <c r="D43" s="78"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="38">
         <v>100</v>
       </c>
@@ -6934,15 +8301,15 @@
       <c r="J43" s="53"/>
       <c r="K43" s="54"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="81">
+      <c r="C44" s="75">
         <v>500000</v>
       </c>
-      <c r="D44" s="81"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="38"/>
       <c r="F44" s="48"/>
       <c r="G44" s="47"/>
@@ -6951,16 +8318,16 @@
       <c r="J44" s="47"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="55"/>
       <c r="B45" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="81">
+      <c r="C45" s="75">
         <f>C44-C47-C48</f>
         <v>475000</v>
       </c>
-      <c r="D45" s="81"/>
+      <c r="D45" s="75"/>
       <c r="E45" s="38">
         <f>C45/C43*100</f>
         <v>69.207955749071743</v>
@@ -6972,16 +8339,16 @@
       <c r="J45" s="47"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="55"/>
       <c r="B46" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="78">
+      <c r="C46" s="72">
         <f>C43-C45</f>
         <v>211337.27850915608</v>
       </c>
-      <c r="D46" s="78"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="38">
         <f>100-E45</f>
         <v>30.792044250928257</v>
@@ -6993,16 +8360,16 @@
       <c r="J46" s="47"/>
       <c r="K46" s="48"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="55"/>
       <c r="B47" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="78">
+      <c r="C47" s="72">
         <f>C44*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D47" s="78"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="38">
         <v>3</v>
       </c>
@@ -7013,16 +8380,16 @@
       <c r="J47" s="47"/>
       <c r="K47" s="48"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="55"/>
       <c r="B48" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="78">
+      <c r="C48" s="72">
         <f>C44*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D48" s="78"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="38">
         <v>2</v>
       </c>
@@ -7033,7 +8400,7 @@
       <c r="J48" s="47"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="56"/>
       <c r="C49" s="56"/>
@@ -7046,1431 +8413,64 @@
       <c r="J49" s="56"/>
       <c r="K49" s="56"/>
     </row>
-    <row r="50" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S105"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="2"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="66" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="3"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="67" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1">
-        <f>0.524-0.127</f>
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="35">
-        <v>1</v>
-      </c>
-      <c r="D10" s="37">
-        <v>18.28</v>
-      </c>
-      <c r="E10" s="37">
-        <v>9.14</v>
-      </c>
-      <c r="F10" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="G10" s="38">
-        <f>PRODUCT(C10:F10)</f>
-        <v>20.884900000000002</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="1">
-        <f>60/3.281</f>
-        <v>18.287107589149649</v>
-      </c>
-      <c r="O10" s="1">
-        <f>30/3.281</f>
-        <v>9.1435537945748244</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="35">
-        <v>0</v>
-      </c>
-      <c r="D11" s="37">
-        <v>5.49</v>
-      </c>
-      <c r="E11" s="37">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="F11" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="G11" s="38">
-        <f t="shared" ref="G11:G19" si="0">PRODUCT(C11:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="1">
-        <f>18.025/3.281</f>
-        <v>5.4937519049070396</v>
-      </c>
-      <c r="O11" s="1">
-        <f>3.5/3.281</f>
-        <v>1.0667479427003961</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="35">
-        <v>0</v>
-      </c>
-      <c r="D12" s="37">
-        <v>5.44</v>
-      </c>
-      <c r="E12" s="37">
-        <v>1.05</v>
-      </c>
-      <c r="F12" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="G12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="35">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="37">
-        <v>3.4</v>
-      </c>
-      <c r="E13" s="37">
-        <v>3.18</v>
-      </c>
-      <c r="F13" s="37">
-        <v>0.125</v>
-      </c>
-      <c r="G13" s="38">
-        <f t="shared" si="0"/>
-        <v>-1.3514999999999999</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1">
-        <f>16/12/3.281</f>
-        <v>0.40638016864776993</v>
-      </c>
-      <c r="P13" s="1">
-        <f>0.524*3.281</f>
-        <v>1.7192440000000002</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="35">
-        <f>3*5</f>
-        <v>15</v>
-      </c>
-      <c r="D14" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="37">
-        <f>0.524-0.127</f>
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="G14" s="38">
-        <f t="shared" si="0"/>
-        <v>0.9528000000000002</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="35">
-        <v>6</v>
-      </c>
-      <c r="D15" s="37">
-        <f>15.42/3.281</f>
-        <v>4.6997866504114594</v>
-      </c>
-      <c r="E15" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="37">
-        <f>1.17/3.281</f>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G15" s="38">
-        <f t="shared" si="0"/>
-        <v>3.0166871946865386</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="21"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="35">
-        <v>3</v>
-      </c>
-      <c r="D16" s="37">
-        <f>12.17/3.281</f>
-        <v>3.7092349893325203</v>
-      </c>
-      <c r="E16" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="F16" s="37">
-        <f t="shared" ref="F16:F19" si="1">1.17/3.281</f>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G16" s="38">
-        <f t="shared" si="0"/>
-        <v>1.1904371971250056</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="35">
-        <v>3</v>
-      </c>
-      <c r="D17" s="37">
-        <f>10.33/3.281</f>
-        <v>3.148430356598598</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="F17" s="37">
-        <f t="shared" si="1"/>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G17" s="38">
-        <f t="shared" si="0"/>
-        <v>1.0104532659245118</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="35">
-        <v>5</v>
-      </c>
-      <c r="D18" s="37">
-        <f>13.833/3.281</f>
-        <v>4.2160926546784516</v>
-      </c>
-      <c r="E18" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="37">
-        <f t="shared" si="1"/>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G18" s="38">
-        <f t="shared" si="0"/>
-        <v>2.2551790944714059</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="35">
-        <v>5</v>
-      </c>
-      <c r="D19" s="37">
-        <f>12.17/3.281</f>
-        <v>3.7092349893325203</v>
-      </c>
-      <c r="E19" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="F19" s="37">
-        <f t="shared" si="1"/>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G19" s="38">
-        <f t="shared" si="0"/>
-        <v>1.9840619952083427</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="32">
-        <f>SUM(G10:G19)</f>
-        <v>29.943018747415806</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="32">
-        <v>13568.9</v>
-      </c>
-      <c r="J20" s="43">
-        <f>G20*I20</f>
-        <v>406293.82708181033</v>
-      </c>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="44">
-        <f>0.13*G20*9524.2</f>
-        <v>37073.82889003789</v>
-      </c>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="63">
-        <v>2</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="29"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="35">
-        <v>1</v>
-      </c>
-      <c r="D24" s="37">
-        <v>18.28</v>
-      </c>
-      <c r="E24" s="37">
-        <v>9.14</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38">
-        <f>PRODUCT(C24:F24)</f>
-        <v>167.07920000000001</v>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="1">
-        <f>60/3.281</f>
-        <v>18.287107589149649</v>
-      </c>
-      <c r="O24" s="1">
-        <f>30/3.281</f>
-        <v>9.1435537945748244</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="35">
-        <v>0</v>
-      </c>
-      <c r="D25" s="37">
-        <v>5.49</v>
-      </c>
-      <c r="E25" s="37">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38">
-        <f t="shared" ref="G25:G33" si="2">PRODUCT(C25:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="21"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="1">
-        <f>18.025/3.281</f>
-        <v>5.4937519049070396</v>
-      </c>
-      <c r="O25" s="1">
-        <f>3.5/3.281</f>
-        <v>1.0667479427003961</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="35">
-        <v>0</v>
-      </c>
-      <c r="D26" s="37">
-        <v>5.44</v>
-      </c>
-      <c r="E26" s="37">
-        <v>1.05</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="35">
-        <v>-1</v>
-      </c>
-      <c r="D27" s="37">
-        <v>3.4</v>
-      </c>
-      <c r="E27" s="37">
-        <v>3.18</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38">
-        <f t="shared" si="2"/>
-        <v>-10.811999999999999</v>
-      </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1">
-        <f>16/12/3.281</f>
-        <v>0.40638016864776993</v>
-      </c>
-      <c r="P27" s="1">
-        <f>0.524*3.281</f>
-        <v>1.7192440000000002</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="35">
-        <f>3*5</f>
-        <v>15</v>
-      </c>
-      <c r="D28" s="37">
-        <f>0.4*4</f>
-        <v>1.6</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37">
-        <f>1.17/3.281</f>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="G28" s="38">
-        <f t="shared" si="2"/>
-        <v>8.5583663517220359</v>
-      </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="35">
-        <v>6</v>
-      </c>
-      <c r="D29" s="37">
-        <f>15.42/3.281</f>
-        <v>4.6997866504114594</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37">
-        <f>2*(1.17/3.281)</f>
-        <v>0.71319719597683628</v>
-      </c>
-      <c r="G29" s="38">
-        <f t="shared" si="2"/>
-        <v>20.111247964576922</v>
-      </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="21"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="35">
-        <v>3</v>
-      </c>
-      <c r="D30" s="37">
-        <f>12.17/3.281</f>
-        <v>3.7092349893325203</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37">
-        <f t="shared" ref="F30:F33" si="3">2*(1.17/3.281)</f>
-        <v>0.71319719597683628</v>
-      </c>
-      <c r="G30" s="38">
-        <f t="shared" si="2"/>
-        <v>7.9362479808333708</v>
-      </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="35">
-        <v>3</v>
-      </c>
-      <c r="D31" s="37">
-        <f>10.33/3.281</f>
-        <v>3.148430356598598</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37">
-        <f t="shared" si="3"/>
-        <v>0.71319719597683628</v>
-      </c>
-      <c r="G31" s="38">
-        <f t="shared" si="2"/>
-        <v>6.7363551061634119</v>
-      </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="35">
-        <v>5</v>
-      </c>
-      <c r="D32" s="37">
-        <f>13.833/3.281</f>
-        <v>4.2160926546784516</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37">
-        <f t="shared" si="3"/>
-        <v>0.71319719597683628</v>
-      </c>
-      <c r="G32" s="38">
-        <f t="shared" si="2"/>
-        <v>15.034527296476037</v>
-      </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="21"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="35">
-        <v>5</v>
-      </c>
-      <c r="D33" s="37">
-        <f>12.17/3.281</f>
-        <v>3.7092349893325203</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37">
-        <f t="shared" si="3"/>
-        <v>0.71319719597683628</v>
-      </c>
-      <c r="G33" s="38">
-        <f t="shared" si="2"/>
-        <v>13.227079968055619</v>
-      </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="21"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="33">
-        <f>SUM(G24:G33)</f>
-        <v>227.87102466782741</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="39">
-        <v>915.42</v>
-      </c>
-      <c r="J34" s="44">
-        <f>G34*I34</f>
-        <v>208597.69340142256</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="44">
-        <f>0.13*G34*(46827.87/100)</f>
-        <v>13871.929135885361</v>
-      </c>
-      <c r="K35" s="21"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="35"/>
-    </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="63">
-        <v>3</v>
-      </c>
-      <c r="B37" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="65">
-        <v>1</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38">
-        <f t="shared" ref="G37" si="4">PRODUCT(C37:F37)</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="33">
-        <v>20000</v>
-      </c>
-      <c r="J37" s="44">
-        <f>G37*I37</f>
-        <v>20000</v>
-      </c>
-      <c r="K37" s="29"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="35"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
-        <v>4</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="19">
-        <v>1</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="33">
-        <f t="shared" ref="G39" si="5">PRODUCT(C39:F39)</f>
-        <v>1</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="23">
-        <v>500</v>
-      </c>
-      <c r="J39" s="33">
-        <f>G39*I39</f>
-        <v>500</v>
-      </c>
-      <c r="K39" s="21"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="21"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="39"/>
-      <c r="B41" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40">
-        <f>SUM(J9:J39)</f>
-        <v>686337.27850915608</v>
-      </c>
-      <c r="K41" s="35"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="57"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="56"/>
-    </row>
-    <row r="43" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="78">
-        <f>J41</f>
-        <v>686337.27850915608</v>
-      </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="38">
-        <v>100</v>
-      </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="54"/>
-    </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
-      <c r="B44" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="81">
-        <v>500000</v>
-      </c>
-      <c r="D44" s="81"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="48"/>
-    </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
-      <c r="B45" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="81">
-        <f>C44-C47-C48</f>
-        <v>475000</v>
-      </c>
-      <c r="D45" s="81"/>
-      <c r="E45" s="38">
-        <f>C45/C43*100</f>
-        <v>69.207955749071743</v>
-      </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="48"/>
-    </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="78">
-        <f>C43-C45</f>
-        <v>211337.27850915608</v>
-      </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="38">
-        <f>100-E45</f>
-        <v>30.792044250928257</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="48"/>
-    </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="78">
-        <f>C44*0.03</f>
-        <v>15000</v>
-      </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="38">
-        <v>3</v>
-      </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="48"/>
-    </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
-      <c r="B48" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="78">
-        <f>C44*0.02</f>
-        <v>10000</v>
-      </c>
-      <c r="D48" s="78"/>
-      <c r="E48" s="38">
-        <v>2</v>
-      </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="48"/>
-    </row>
-    <row r="49" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-    </row>
-    <row r="50" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="A7:F7"/>
@@ -8478,13 +8478,19 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:
 Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
+Er. Bal Krishna Manandhar&amp;RApproved By:
 Er. Prakash Singh Saud</oddFooter>
   </headerFooter>
 </worksheet>
